--- a/R&D/Validation HARD 2013.xlsx
+++ b/R&D/Validation HARD 2013.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="63">
   <si>
     <t>Propulsion</t>
   </si>
@@ -170,6 +170,48 @@
   </si>
   <si>
     <t>La liste des ports indique le reset Xbee mais aucune resistance ne  le relie</t>
+  </si>
+  <si>
+    <t>UART1/bouton3</t>
+  </si>
+  <si>
+    <t>UART2/bouton4</t>
+  </si>
+  <si>
+    <t>Pas de Rép</t>
+  </si>
+  <si>
+    <t>NON</t>
+  </si>
+  <si>
+    <t>VALIDE</t>
+  </si>
+  <si>
+    <t>Souci sur les actionneurs pour entrees analogiques</t>
+  </si>
+  <si>
+    <t>sens3</t>
+  </si>
+  <si>
+    <t>pwm2</t>
+  </si>
+  <si>
+    <t>L'activation des boutons 3 et 4 declenchent le can et pas les uart</t>
+  </si>
+  <si>
+    <t>cc avec  pwm 2</t>
+  </si>
+  <si>
+    <t>I:AN</t>
+  </si>
+  <si>
+    <t>2.4&lt;x&lt;2.6</t>
+  </si>
+  <si>
+    <t>&lt;2.4</t>
+  </si>
+  <si>
+    <t>Probleme de potentiels sur les entrées analogiques</t>
   </si>
 </sst>
 </file>
@@ -202,7 +244,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -227,8 +269,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="31">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -555,45 +603,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -648,15 +657,64 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -687,9 +745,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -708,27 +763,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -738,16 +787,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -795,17 +841,38 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1106,294 +1173,262 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:D30"/>
+  <dimension ref="B1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="8"/>
-    <col min="2" max="2" width="14.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="8"/>
-    <col min="4" max="4" width="13.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="11.42578125" style="8"/>
+    <col min="1" max="1" width="11.42578125" style="7"/>
+    <col min="2" max="2" width="14.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="7"/>
+    <col min="4" max="4" width="13.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="11.42578125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:4" s="10" customFormat="1" ht="15.75" thickBot="1">
-      <c r="B2" s="11" t="s">
+    <row r="1" spans="2:5" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:5" s="9" customFormat="1" ht="15.75" thickBot="1">
+      <c r="B2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="49" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="2:4">
-      <c r="B3" s="17" t="s">
+    <row r="3" spans="2:5">
+      <c r="B3" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="18">
-        <v>1</v>
-      </c>
-      <c r="D3" s="48" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4">
-      <c r="B4" s="14"/>
-      <c r="C4" s="7">
+      <c r="C3" s="46">
+        <v>1</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="12"/>
+      <c r="C4" s="47">
         <v>2</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="15.75" thickBot="1">
+      <c r="B5" s="12"/>
+      <c r="C5" s="47">
+        <v>3</v>
+      </c>
+      <c r="D5" s="41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="16">
+        <v>1</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="12"/>
+      <c r="C7" s="6">
+        <v>2</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="15.75" thickBot="1">
+      <c r="B8" s="12"/>
+      <c r="C8" s="6">
+        <v>3</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="12"/>
+      <c r="C10" s="6">
+        <v>2</v>
+      </c>
+      <c r="D10" s="41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="15.75" thickBot="1">
+      <c r="B11" s="12"/>
+      <c r="C11" s="6">
+        <v>3</v>
+      </c>
+      <c r="D11" s="51" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="16">
+        <v>1</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="12"/>
+      <c r="C13" s="6">
+        <v>2</v>
+      </c>
+      <c r="D13" s="41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="15.75" thickBot="1">
+      <c r="B14" s="12"/>
+      <c r="C14" s="6">
+        <v>3</v>
+      </c>
+      <c r="D14" s="41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="15.75" thickBot="1">
+      <c r="B15" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="25" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="2:4">
-      <c r="B5" s="14"/>
-      <c r="C5" s="7">
-        <v>3</v>
-      </c>
-      <c r="D5" s="27" t="s">
+    <row r="16" spans="2:5">
+      <c r="B16" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="16">
+        <v>1</v>
+      </c>
+      <c r="D16" s="22" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="15.75" thickBot="1">
-      <c r="B6" s="15"/>
-      <c r="C6" s="16">
-        <v>4</v>
-      </c>
-      <c r="D6" s="28" t="s">
+    <row r="17" spans="2:4">
+      <c r="B17" s="12"/>
+      <c r="C17" s="6">
+        <v>2</v>
+      </c>
+      <c r="D17" s="23" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="2:4">
-      <c r="B7" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="18">
-        <v>1</v>
-      </c>
-      <c r="D7" s="26" t="s">
+    <row r="18" spans="2:4">
+      <c r="B18" s="12"/>
+      <c r="C18" s="6">
+        <v>3</v>
+      </c>
+      <c r="D18" s="23" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="2:4">
-      <c r="B8" s="14"/>
-      <c r="C8" s="7">
-        <v>2</v>
-      </c>
-      <c r="D8" s="27" t="s">
+    <row r="19" spans="2:4" ht="15.75" thickBot="1">
+      <c r="B19" s="13"/>
+      <c r="C19" s="14">
+        <v>4</v>
+      </c>
+      <c r="D19" s="24" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="2:4">
-      <c r="B9" s="14"/>
-      <c r="C9" s="7">
-        <v>3</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" ht="15.75" thickBot="1">
-      <c r="B10" s="15"/>
-      <c r="C10" s="16">
-        <v>4</v>
-      </c>
-      <c r="D10" s="28" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4">
-      <c r="B11" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="6">
-        <v>1</v>
-      </c>
-      <c r="D11" s="36" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4">
-      <c r="B12" s="14"/>
-      <c r="C12" s="7">
-        <v>2</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4">
-      <c r="B13" s="14"/>
-      <c r="C13" s="7">
-        <v>3</v>
-      </c>
-      <c r="D13" s="27" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" ht="15.75" thickBot="1">
-      <c r="B14" s="19"/>
-      <c r="C14" s="20">
-        <v>4</v>
-      </c>
-      <c r="D14" s="29" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4">
-      <c r="B15" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="18">
-        <v>1</v>
-      </c>
-      <c r="D15" s="36" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4">
-      <c r="B16" s="14"/>
-      <c r="C16" s="7">
-        <v>2</v>
-      </c>
-      <c r="D16" s="46" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4">
-      <c r="B17" s="14"/>
-      <c r="C17" s="7">
-        <v>3</v>
-      </c>
-      <c r="D17" s="46" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" ht="15.75" thickBot="1">
-      <c r="B18" s="15"/>
-      <c r="C18" s="16">
-        <v>4</v>
-      </c>
-      <c r="D18" s="28" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" ht="15.75" thickBot="1">
-      <c r="B19" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="30" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4">
-      <c r="B20" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="18">
-        <v>1</v>
-      </c>
+    <row r="20" spans="2:4" ht="15.75" thickBot="1">
+      <c r="B20" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="19"/>
       <c r="D20" s="26" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="21" spans="2:4">
-      <c r="B21" s="14"/>
-      <c r="C21" s="7">
+      <c r="B21" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="16">
+        <v>1</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" s="12"/>
+      <c r="C22" s="6">
         <v>2</v>
       </c>
-      <c r="D21" s="27" t="s">
+      <c r="D22" s="23" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="2:4">
-      <c r="B22" s="14"/>
-      <c r="C22" s="7">
-        <v>3</v>
-      </c>
-      <c r="D22" s="27" t="s">
+    <row r="23" spans="2:4">
+      <c r="B23" s="12"/>
+      <c r="C23" s="6">
+        <v>3</v>
+      </c>
+      <c r="D23" s="23" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="2:4" ht="15.75" thickBot="1">
-      <c r="B23" s="15"/>
-      <c r="C23" s="16">
-        <v>4</v>
-      </c>
-      <c r="D23" s="28" t="s">
+    <row r="24" spans="2:4">
+      <c r="B24" s="12"/>
+      <c r="C24" s="6">
+        <v>4</v>
+      </c>
+      <c r="D24" s="23" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="2:4" ht="15.75" thickBot="1">
-      <c r="B24" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="23"/>
-      <c r="D24" s="31" t="s">
+    <row r="25" spans="2:4" ht="15.75" thickBot="1">
+      <c r="B25" s="13"/>
+      <c r="C25" s="14">
+        <v>5</v>
+      </c>
+      <c r="D25" s="24" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="2:4">
-      <c r="B25" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="18">
-        <v>1</v>
-      </c>
-      <c r="D25" s="26" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4">
-      <c r="B26" s="14"/>
-      <c r="C26" s="7">
-        <v>2</v>
-      </c>
+    <row r="26" spans="2:4" ht="15.75" thickBot="1">
+      <c r="B26" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="21"/>
       <c r="D26" s="27" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4">
-      <c r="B27" s="14"/>
-      <c r="C27" s="7">
-        <v>3</v>
-      </c>
-      <c r="D27" s="27" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4">
-      <c r="B28" s="14"/>
-      <c r="C28" s="7">
-        <v>4</v>
-      </c>
-      <c r="D28" s="27" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" ht="15.75" thickBot="1">
-      <c r="B29" s="15"/>
-      <c r="C29" s="16">
-        <v>5</v>
-      </c>
-      <c r="D29" s="28" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" ht="15.75" thickBot="1">
-      <c r="B30" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30" s="25"/>
-      <c r="D30" s="32" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1414,62 +1449,62 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="8"/>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
+      <c r="A1" s="7"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="9" t="s">
+      <c r="A2" s="7"/>
+      <c r="B2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="34">
-        <v>1</v>
-      </c>
-      <c r="E2" s="9" t="s">
+      <c r="D2" s="29">
+        <v>1</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="33"/>
+      <c r="F2" s="28"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A4" s="8"/>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="7"/>
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="5" t="s">
+      <c r="E4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1478,170 +1513,561 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:F20"/>
+  <dimension ref="B2:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="11.42578125" style="8"/>
-    <col min="3" max="3" width="15" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" style="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="67.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="11.42578125" style="8"/>
+    <col min="1" max="2" width="11.42578125" style="7"/>
+    <col min="3" max="3" width="15" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="71.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="11.42578125" style="7"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
-      <c r="B2" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="9" t="s">
+      <c r="B2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="34">
-        <v>1</v>
-      </c>
-      <c r="E2" s="9" t="s">
+      <c r="D2" s="29">
+        <v>1</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="51" t="s">
+      <c r="F2" s="45" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="15.75" thickBot="1"/>
     <row r="4" spans="2:6" ht="15.75" thickBot="1">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="5" t="s">
+      <c r="E4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="49">
+      <c r="C5" s="40">
         <v>0</v>
       </c>
       <c r="D5" s="50">
         <v>1</v>
       </c>
-      <c r="E5" s="49" t="s">
+      <c r="E5" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="40" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="F5" s="49" t="s">
+      <c r="F6" s="43" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="29">
+        <v>2</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="45" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="15.75" thickBot="1"/>
+    <row r="11" spans="2:6" ht="15.75" thickBot="1">
+      <c r="B11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="40">
+        <v>0</v>
+      </c>
+      <c r="D12" s="50">
+        <v>1</v>
+      </c>
+      <c r="E12" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="40" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="2:6">
-      <c r="B8" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="9" t="s">
+    <row r="13" spans="2:6">
+      <c r="B13" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="43" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="52"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="34">
+      <c r="D16" s="29">
+        <v>3</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="45" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="15.75" thickBot="1"/>
+    <row r="18" spans="2:6" ht="15.75" thickBot="1">
+      <c r="B18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="40">
+        <v>0</v>
+      </c>
+      <c r="D19" s="50">
+        <v>1</v>
+      </c>
+      <c r="E19" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="40" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="43" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="52"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="29">
+        <v>4</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="28"/>
+    </row>
+    <row r="24" spans="2:6" ht="15.75" thickBot="1"/>
+    <row r="25" spans="2:6" ht="15.75" thickBot="1">
+      <c r="B25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="58.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="7"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="7"/>
+      <c r="B2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="29">
+        <v>1</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="42" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A4" s="7"/>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="7"/>
+      <c r="B5" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E5" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="40" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="7"/>
+      <c r="B6" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="40" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="7"/>
+      <c r="B9" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="29">
+        <v>2</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="33"/>
-    </row>
-    <row r="9" spans="2:6" ht="15.75" thickBot="1"/>
-    <row r="10" spans="2:6" ht="15.75" thickBot="1">
-      <c r="B10" s="2" t="s">
+      <c r="F9" s="42" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A11" s="7"/>
+      <c r="B11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="35" t="s">
+      <c r="D11" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6">
-      <c r="B13" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="34">
-        <v>3</v>
-      </c>
-      <c r="E13" s="9" t="s">
+      <c r="E11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="7"/>
+      <c r="B14" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="29">
+        <v>3</v>
+      </c>
+      <c r="E14" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="33"/>
-    </row>
-    <row r="14" spans="2:6" ht="15.75" thickBot="1"/>
-    <row r="15" spans="2:6" ht="15.75" thickBot="1">
-      <c r="B15" s="2" t="s">
+      <c r="F14" s="42" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A16" s="7"/>
+      <c r="B16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="35" t="s">
+      <c r="D16" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6">
-      <c r="B18" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="34">
-        <v>4</v>
-      </c>
-      <c r="E18" s="9" t="s">
+      <c r="E16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="7"/>
+      <c r="B19" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="29">
+        <v>4</v>
+      </c>
+      <c r="E19" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F18" s="33"/>
-    </row>
-    <row r="19" spans="2:6" ht="15.75" thickBot="1"/>
-    <row r="20" spans="2:6" ht="15.75" thickBot="1">
-      <c r="B20" s="2" t="s">
+      <c r="F19" s="28"/>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A21" s="7"/>
+      <c r="B21" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="35" t="s">
+      <c r="D21" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F20" s="5" t="s">
+      <c r="E21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" s="4" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1650,12 +2076,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F19"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1663,477 +2089,258 @@
     <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="8"/>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
+      <c r="A1" s="7"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="34">
-        <v>1</v>
-      </c>
-      <c r="E2" s="9" t="s">
+      <c r="A2" s="7"/>
+      <c r="B2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="29">
+        <v>1</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="33"/>
+      <c r="F2" s="42" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A4" s="8"/>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="7"/>
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="5" t="s">
+      <c r="E4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="34">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="29">
         <v>2</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="33"/>
+      <c r="F7" s="42" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A9" s="8"/>
-      <c r="B9" s="2" t="s">
+      <c r="A9" s="7"/>
+      <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="D9" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" s="5" t="s">
+      <c r="E9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="40"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="40"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="8"/>
-      <c r="B12" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="34">
-        <v>3</v>
-      </c>
-      <c r="E12" s="9" t="s">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="7"/>
+      <c r="B14" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="29">
+        <v>3</v>
+      </c>
+      <c r="E14" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="33"/>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A14" s="8"/>
-      <c r="B14" s="2" t="s">
+      <c r="F14" s="42" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A16" s="7"/>
+      <c r="B16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="35" t="s">
+      <c r="D16" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
+      <c r="E16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="8"/>
-      <c r="B17" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="34">
-        <v>4</v>
-      </c>
-      <c r="E17" s="9" t="s">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="7"/>
+      <c r="B19" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="29">
+        <v>4</v>
+      </c>
+      <c r="E19" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F17" s="33"/>
-    </row>
-    <row r="18" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A19" s="8"/>
-      <c r="B19" s="2" t="s">
+      <c r="F19" s="28"/>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A21" s="7"/>
+      <c r="B21" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="35" t="s">
+      <c r="D21" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <cols>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="8"/>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="34">
-        <v>1</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="47" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A4" s="8"/>
-      <c r="B4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="34">
-        <v>2</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="33"/>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A9" s="8"/>
-      <c r="B9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="8"/>
-      <c r="B12" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="34">
-        <v>3</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="33"/>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A14" s="8"/>
-      <c r="B14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="8"/>
-      <c r="B17" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="34">
-        <v>4</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="33"/>
-    </row>
-    <row r="18" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A19" s="8"/>
-      <c r="B19" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F19" s="5" t="s">
+      <c r="E21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" s="4" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2152,299 +2359,299 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="8"/>
-    <col min="2" max="2" width="16.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="50" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="11.42578125" style="8"/>
+    <col min="1" max="1" width="11.42578125" style="7"/>
+    <col min="2" max="2" width="16.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="50" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="11.42578125" style="7"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
-      <c r="B2" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="9" t="s">
+      <c r="B2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="8">
-        <v>1</v>
-      </c>
-      <c r="E2" s="9" t="s">
+      <c r="D2" s="7">
+        <v>1</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="F2" s="32" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="15.75" thickBot="1"/>
     <row r="4" spans="2:6" ht="15.75" thickBot="1">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="5" t="s">
+      <c r="E4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="40">
-        <v>1</v>
-      </c>
-      <c r="E5" s="40" t="s">
+      <c r="D5" s="35">
+        <v>1</v>
+      </c>
+      <c r="E5" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="40" t="s">
+      <c r="F5" s="35" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="43">
-        <v>1</v>
-      </c>
-      <c r="E6" s="40" t="s">
+      <c r="D6" s="38">
+        <v>1</v>
+      </c>
+      <c r="E6" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="40" t="s">
+      <c r="F6" s="35" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="42">
+      <c r="C7" s="37">
         <v>2.04</v>
       </c>
-      <c r="D7" s="43">
+      <c r="D7" s="38">
         <v>2.6</v>
       </c>
-      <c r="E7" s="40" t="s">
+      <c r="E7" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="43" t="s">
+      <c r="F7" s="38" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="42">
+      <c r="C8" s="37">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D8" s="43">
+      <c r="D8" s="38">
         <v>2.6</v>
       </c>
-      <c r="E8" s="40" t="s">
+      <c r="E8" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="43" t="s">
+      <c r="F8" s="38" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="42">
+      <c r="C9" s="37">
         <v>2.4</v>
       </c>
-      <c r="D9" s="43">
+      <c r="D9" s="38">
         <v>2.6</v>
       </c>
-      <c r="E9" s="40" t="s">
+      <c r="E9" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="43" t="s">
+      <c r="F9" s="38" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="42" t="s">
+      <c r="C10" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="43" t="s">
+      <c r="D10" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="43" t="s">
+      <c r="E10" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="43" t="s">
+      <c r="F10" s="38" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="15.75" thickBot="1">
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="42"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43" t="s">
+      <c r="C11" s="37"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="43" t="s">
+      <c r="F11" s="38" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="9" t="s">
+      <c r="B14" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="34">
+      <c r="D14" s="29">
         <v>2</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="37" t="s">
+      <c r="F14" s="32" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="15.75" thickBot="1"/>
     <row r="16" spans="2:6" ht="15.75" thickBot="1">
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F16" s="5" t="s">
+      <c r="E16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="45" t="s">
+      <c r="B17" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="45" t="s">
+      <c r="C17" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="45" t="s">
+      <c r="D17" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="45" t="s">
+      <c r="E17" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="45" t="s">
+      <c r="F17" s="40" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="9" t="s">
+      <c r="B20" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="8">
-        <v>3</v>
-      </c>
-      <c r="E20" s="9" t="s">
+      <c r="D20" s="7">
+        <v>3</v>
+      </c>
+      <c r="E20" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F20" s="37" t="s">
+      <c r="F20" s="32" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="15.75" thickBot="1"/>
     <row r="22" spans="2:6" ht="15.75" thickBot="1">
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E22" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F22" s="5" t="s">
+      <c r="E22" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F22" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="45" t="s">
+      <c r="B23" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="45" t="s">
+      <c r="C23" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="45" t="s">
+      <c r="D23" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="E23" s="45" t="s">
+      <c r="E23" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="F23" s="45" t="s">
+      <c r="F23" s="40" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" s="9" t="s">
+      <c r="B26" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D26" s="8">
-        <v>4</v>
-      </c>
-      <c r="E26" s="9" t="s">
+      <c r="D26" s="7">
+        <v>4</v>
+      </c>
+      <c r="E26" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F26" s="33"/>
+      <c r="F26" s="28"/>
     </row>
     <row r="27" spans="2:6" ht="15.75" thickBot="1"/>
     <row r="28" spans="2:6" ht="15.75" thickBot="1">
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E28" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F28" s="5" t="s">
+      <c r="E28" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F28" s="4" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2465,62 +2672,62 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="8"/>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
+      <c r="A1" s="7"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="9" t="s">
+      <c r="A2" s="7"/>
+      <c r="B2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="34">
-        <v>1</v>
-      </c>
-      <c r="E2" s="9" t="s">
+      <c r="D2" s="29">
+        <v>1</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="33"/>
+      <c r="F2" s="28"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A4" s="8"/>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="7"/>
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="5" t="s">
+      <c r="E4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2544,226 +2751,226 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="8"/>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
+      <c r="A1" s="7"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="9" t="s">
+      <c r="A2" s="7"/>
+      <c r="B2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="34">
-        <v>1</v>
-      </c>
-      <c r="E2" s="9" t="s">
+      <c r="D2" s="29">
+        <v>1</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="33"/>
+      <c r="F2" s="28"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A4" s="8"/>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="7"/>
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="5" t="s">
+      <c r="E4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="9" t="s">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="34">
+      <c r="D7" s="29">
         <v>2</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="33"/>
+      <c r="F7" s="28"/>
     </row>
     <row r="8" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A9" s="8"/>
-      <c r="B9" s="2" t="s">
+      <c r="A9" s="7"/>
+      <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="D9" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" s="5" t="s">
+      <c r="E9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="8"/>
-      <c r="B12" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="9" t="s">
+      <c r="A12" s="7"/>
+      <c r="B12" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="34">
-        <v>3</v>
-      </c>
-      <c r="E12" s="9" t="s">
+      <c r="D12" s="29">
+        <v>3</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="33"/>
+      <c r="F12" s="28"/>
     </row>
     <row r="13" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
     </row>
     <row r="14" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A14" s="8"/>
-      <c r="B14" s="2" t="s">
+      <c r="A14" s="7"/>
+      <c r="B14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="35" t="s">
+      <c r="D14" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F14" s="5" t="s">
+      <c r="E14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="8"/>
-      <c r="B17" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="9" t="s">
+      <c r="A17" s="7"/>
+      <c r="B17" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="34">
-        <v>4</v>
-      </c>
-      <c r="E17" s="9" t="s">
+      <c r="D17" s="29">
+        <v>4</v>
+      </c>
+      <c r="E17" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F17" s="33"/>
+      <c r="F17" s="28"/>
     </row>
     <row r="18" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A19" s="8"/>
-      <c r="B19" s="2" t="s">
+      <c r="A19" s="7"/>
+      <c r="B19" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="35" t="s">
+      <c r="D19" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F19" s="5" t="s">
+      <c r="E19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2789,62 +2996,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="8"/>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
+      <c r="A1" s="7"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="9" t="s">
+      <c r="A2" s="7"/>
+      <c r="B2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="34">
-        <v>1</v>
-      </c>
-      <c r="E2" s="9" t="s">
+      <c r="D2" s="29">
+        <v>1</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="33"/>
+      <c r="F2" s="28"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A4" s="8"/>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="7"/>
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="5" t="s">
+      <c r="E4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2868,226 +3075,226 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="8"/>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
+      <c r="A1" s="7"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="9" t="s">
+      <c r="A2" s="7"/>
+      <c r="B2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="34">
-        <v>1</v>
-      </c>
-      <c r="E2" s="9" t="s">
+      <c r="D2" s="29">
+        <v>1</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="33"/>
+      <c r="F2" s="28"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A4" s="8"/>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="7"/>
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="5" t="s">
+      <c r="E4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="9" t="s">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="34">
+      <c r="D7" s="29">
         <v>2</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="33"/>
+      <c r="F7" s="28"/>
     </row>
     <row r="8" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A9" s="8"/>
-      <c r="B9" s="2" t="s">
+      <c r="A9" s="7"/>
+      <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="D9" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" s="5" t="s">
+      <c r="E9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="8"/>
-      <c r="B12" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="9" t="s">
+      <c r="A12" s="7"/>
+      <c r="B12" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="34">
-        <v>3</v>
-      </c>
-      <c r="E12" s="9" t="s">
+      <c r="D12" s="29">
+        <v>3</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="33"/>
+      <c r="F12" s="28"/>
     </row>
     <row r="13" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
     </row>
     <row r="14" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A14" s="8"/>
-      <c r="B14" s="2" t="s">
+      <c r="A14" s="7"/>
+      <c r="B14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="35" t="s">
+      <c r="D14" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F14" s="5" t="s">
+      <c r="E14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="8"/>
-      <c r="B17" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="9" t="s">
+      <c r="A17" s="7"/>
+      <c r="B17" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="34">
-        <v>4</v>
-      </c>
-      <c r="E17" s="9" t="s">
+      <c r="D17" s="29">
+        <v>4</v>
+      </c>
+      <c r="E17" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F17" s="33"/>
+      <c r="F17" s="28"/>
     </row>
     <row r="18" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A19" s="8"/>
-      <c r="B19" s="2" t="s">
+      <c r="A19" s="7"/>
+      <c r="B19" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="35" t="s">
+      <c r="D19" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F19" s="5" t="s">
+      <c r="E19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>3</v>
       </c>
     </row>

--- a/R&D/Validation HARD 2013.xlsx
+++ b/R&D/Validation HARD 2013.xlsx
@@ -244,18 +244,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -713,7 +707,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -778,22 +772,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -805,67 +799,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1194,10 +1179,10 @@
       <c r="B2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="46" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1205,7 +1190,7 @@
       <c r="B3" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="46">
+      <c r="C3" s="43">
         <v>1</v>
       </c>
       <c r="D3" s="41" t="s">
@@ -1214,7 +1199,7 @@
     </row>
     <row r="4" spans="2:5">
       <c r="B4" s="12"/>
-      <c r="C4" s="47">
+      <c r="C4" s="44">
         <v>2</v>
       </c>
       <c r="D4" s="41" t="s">
@@ -1223,7 +1208,7 @@
     </row>
     <row r="5" spans="2:5" ht="15.75" thickBot="1">
       <c r="B5" s="12"/>
-      <c r="C5" s="47">
+      <c r="C5" s="44">
         <v>3</v>
       </c>
       <c r="D5" s="41" t="s">
@@ -1287,7 +1272,7 @@
       <c r="C11" s="6">
         <v>3</v>
       </c>
-      <c r="D11" s="51" t="s">
+      <c r="D11" s="48" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1516,7 +1501,7 @@
   <dimension ref="B2:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1542,8 +1527,8 @@
       <c r="E2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="45" t="s">
-        <v>46</v>
+      <c r="F2" s="32" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="15.75" thickBot="1"/>
@@ -1571,7 +1556,7 @@
       <c r="C5" s="40">
         <v>0</v>
       </c>
-      <c r="D5" s="50">
+      <c r="D5" s="47">
         <v>1</v>
       </c>
       <c r="E5" s="40" t="s">
@@ -1582,19 +1567,19 @@
       </c>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="44" t="s">
+      <c r="D6" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="E6" s="43" t="s">
+      <c r="E6" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="43" t="s">
+      <c r="F6" s="40" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1611,8 +1596,8 @@
       <c r="E9" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="45" t="s">
-        <v>46</v>
+      <c r="F9" s="32" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="15.75" thickBot="1"/>
@@ -1640,7 +1625,7 @@
       <c r="C12" s="40">
         <v>0</v>
       </c>
-      <c r="D12" s="50">
+      <c r="D12" s="47">
         <v>1</v>
       </c>
       <c r="E12" s="40" t="s">
@@ -1651,28 +1636,28 @@
       </c>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="43" t="s">
+      <c r="B13" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="43" t="s">
+      <c r="C13" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="44" t="s">
+      <c r="D13" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="43" t="s">
+      <c r="E13" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="43" t="s">
+      <c r="F13" s="40" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="52"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
     </row>
     <row r="16" spans="2:6">
       <c r="B16" s="8" t="s">
@@ -1687,8 +1672,8 @@
       <c r="E16" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="45" t="s">
-        <v>46</v>
+      <c r="F16" s="32" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="15.75" thickBot="1"/>
@@ -1716,7 +1701,7 @@
       <c r="C19" s="40">
         <v>0</v>
       </c>
-      <c r="D19" s="50">
+      <c r="D19" s="47">
         <v>1</v>
       </c>
       <c r="E19" s="40" t="s">
@@ -1727,28 +1712,28 @@
       </c>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="43" t="s">
+      <c r="B20" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="43" t="s">
+      <c r="C20" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="D20" s="44" t="s">
+      <c r="D20" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="E20" s="43" t="s">
+      <c r="E20" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="F20" s="43" t="s">
+      <c r="F20" s="40" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="52"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="52"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
     </row>
     <row r="23" spans="2:6">
       <c r="B23" s="8" t="s">
@@ -1866,7 +1851,7 @@
       <c r="C5" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="50" t="s">
+      <c r="D5" s="47" t="s">
         <v>2</v>
       </c>
       <c r="E5" s="40" t="s">
@@ -1884,7 +1869,7 @@
       <c r="C6" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="50" t="s">
+      <c r="D6" s="47" t="s">
         <v>2</v>
       </c>
       <c r="E6" s="40" t="s">
@@ -2210,7 +2195,7 @@
         <v>55</v>
       </c>
       <c r="C10" s="40"/>
-      <c r="D10" s="50"/>
+      <c r="D10" s="47"/>
       <c r="E10" s="40"/>
       <c r="F10" s="40" t="s">
         <v>58</v>
@@ -2222,7 +2207,7 @@
         <v>56</v>
       </c>
       <c r="C11" s="40"/>
-      <c r="D11" s="50"/>
+      <c r="D11" s="47"/>
       <c r="E11" s="40"/>
       <c r="F11" s="40"/>
     </row>
